--- a/krofulisti/krofulisti.xlsx
+++ b/krofulisti/krofulisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a537d988d1e6d30/Skjáborð/lokaverkyes/NaNAirCarRental/krofulisti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90138C2A-032C-4920-A7AE-36047F55DCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{90138C2A-032C-4920-A7AE-36047F55DCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35A0FB42-9BDB-4822-B693-8C0E78F10C37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{885866DF-02B9-46F5-A352-80571230F15D}"/>
+    <workbookView xWindow="4665" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{885866DF-02B9-46F5-A352-80571230F15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t>Forgangur</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Notendahópur</t>
+  </si>
+  <si>
+    <t>Starfsmenn í Reykjavík</t>
+  </si>
+  <si>
+    <t>Allir</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +531,7 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,7 +564,9 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -573,7 +581,9 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -588,7 +598,9 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -603,7 +615,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -618,7 +632,9 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -633,7 +649,9 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -648,7 +666,9 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -663,7 +683,9 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -678,7 +700,9 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -693,7 +717,9 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -708,7 +734,9 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -723,7 +751,9 @@
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -738,7 +768,9 @@
       <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -753,7 +785,9 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -768,7 +802,9 @@
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -798,7 +834,9 @@
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -813,7 +851,9 @@
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -828,7 +868,9 @@
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -843,7 +885,9 @@
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -858,7 +902,9 @@
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -873,7 +919,9 @@
       <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -888,7 +936,9 @@
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -903,7 +953,9 @@
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -918,7 +970,9 @@
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -933,7 +987,9 @@
       <c r="D27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -948,7 +1004,9 @@
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -963,7 +1021,9 @@
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -978,7 +1038,9 @@
       <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -993,7 +1055,9 @@
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1008,7 +1072,9 @@
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1023,7 +1089,9 @@
       <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1038,7 +1106,9 @@
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>

--- a/krofulisti/krofulisti.xlsx
+++ b/krofulisti/krofulisti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a537d988d1e6d30/Skjáborð/lokaverkyes/NaNAirCarRental/krofulisti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{90138C2A-032C-4920-A7AE-36047F55DCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35A0FB42-9BDB-4822-B693-8C0E78F10C37}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{90138C2A-032C-4920-A7AE-36047F55DCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F6E9A03-D475-4A5C-9681-0DF051B83C73}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{885866DF-02B9-46F5-A352-80571230F15D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
   <si>
     <t>Forgangur</t>
   </si>
@@ -157,15 +157,6 @@
   </si>
   <si>
     <t>Notendavænt</t>
-  </si>
-  <si>
-    <t>Notendahópur</t>
-  </si>
-  <si>
-    <t>Starfsmenn í Reykjavík</t>
-  </si>
-  <si>
-    <t>Allir</t>
   </si>
 </sst>
 </file>
@@ -523,7 +514,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E35" sqref="E1:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,9 +538,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -564,9 +553,7 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -581,9 +568,7 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -598,9 +583,7 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -615,9 +598,7 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -632,9 +613,7 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -649,9 +628,7 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -666,9 +643,7 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -683,9 +658,7 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -700,9 +673,7 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -717,9 +688,7 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -734,9 +703,7 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -751,9 +718,7 @@
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -768,9 +733,7 @@
       <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -785,9 +748,7 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -802,9 +763,7 @@
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -834,9 +793,7 @@
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -851,9 +808,7 @@
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -868,9 +823,7 @@
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -885,9 +838,7 @@
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -902,9 +853,7 @@
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -919,9 +868,7 @@
       <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -936,9 +883,7 @@
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -953,9 +898,7 @@
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -970,9 +913,7 @@
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -987,9 +928,7 @@
       <c r="D27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1004,9 +943,7 @@
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1021,9 +958,7 @@
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1038,9 +973,7 @@
       <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1055,9 +988,7 @@
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1072,9 +1003,7 @@
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1089,9 +1018,7 @@
       <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1106,9 +1033,7 @@
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>

--- a/krofulisti/krofulisti.xlsx
+++ b/krofulisti/krofulisti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a537d988d1e6d30/Skjáborð/lokaverkyes/NaNAirCarRental/krofulisti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{90138C2A-032C-4920-A7AE-36047F55DCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F6E9A03-D475-4A5C-9681-0DF051B83C73}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{90138C2A-032C-4920-A7AE-36047F55DCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4EFA8888-9E16-4F7E-B589-ECA325999ACE}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{885866DF-02B9-46F5-A352-80571230F15D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>Forgangur</t>
   </si>
@@ -144,19 +144,22 @@
     <t>Yfirlit yfir nýtingu tækja</t>
   </si>
   <si>
-    <t>Áreiðanleiki</t>
-  </si>
-  <si>
     <t>Nysemiskrafa</t>
   </si>
   <si>
-    <t>Öruggt</t>
-  </si>
-  <si>
-    <t>Auðlesanlegt</t>
-  </si>
-  <si>
     <t>Notendavænt</t>
+  </si>
+  <si>
+    <t>Notendahópur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áreiðanleiki </t>
+  </si>
+  <si>
+    <t>Að meðaltali fá kerfið 4 af 5 í einkunn fyrir öryggi</t>
+  </si>
+  <si>
+    <t>Við viljum að 90% af notendum finnist lausnin auðskiljanleg</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E1:E35"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +541,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -713,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -728,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -743,10 +748,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -758,10 +763,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1"/>
     </row>

--- a/krofulisti/krofulisti.xlsx
+++ b/krofulisti/krofulisti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a537d988d1e6d30/Skjáborð/lokaverkyes/NaNAirCarRental/krofulisti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{90138C2A-032C-4920-A7AE-36047F55DCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4EFA8888-9E16-4F7E-B589-ECA325999ACE}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{90138C2A-032C-4920-A7AE-36047F55DCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20452C2A-B41F-4112-B95E-0918A68F6795}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{885866DF-02B9-46F5-A352-80571230F15D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="47">
   <si>
     <t>Forgangur</t>
   </si>
@@ -147,19 +147,34 @@
     <t>Nysemiskrafa</t>
   </si>
   <si>
-    <t>Notendavænt</t>
-  </si>
-  <si>
     <t>Notendahópur</t>
   </si>
   <si>
-    <t xml:space="preserve">Áreiðanleiki </t>
-  </si>
-  <si>
     <t>Að meðaltali fá kerfið 4 af 5 í einkunn fyrir öryggi</t>
   </si>
   <si>
     <t>Við viljum að 90% af notendum finnist lausnin auðskiljanleg</t>
+  </si>
+  <si>
+    <t>Allir</t>
+  </si>
+  <si>
+    <t>Kerfi</t>
+  </si>
+  <si>
+    <t>A-b</t>
+  </si>
+  <si>
+    <t>Skrifstofa / Chuck</t>
+  </si>
+  <si>
+    <t>Allir notendur</t>
+  </si>
+  <si>
+    <t>Við viljum að auðvelt sé að breyta virkni kerfisins</t>
+  </si>
+  <si>
+    <t>Forritarar</t>
   </si>
 </sst>
 </file>
@@ -517,7 +532,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,7 +573,9 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -573,7 +590,9 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -588,7 +607,9 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -603,7 +624,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -618,7 +641,9 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -633,7 +658,9 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -648,7 +675,9 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -663,7 +692,9 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -678,7 +709,9 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -693,7 +726,9 @@
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -708,7 +743,9 @@
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -718,12 +755,14 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -733,12 +772,14 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -748,27 +789,31 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -778,12 +823,14 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -793,12 +840,14 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -808,12 +857,14 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -823,12 +874,14 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -838,12 +891,14 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -853,12 +908,14 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -868,12 +925,14 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -883,12 +942,14 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -898,12 +959,14 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -913,12 +976,14 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -928,12 +993,14 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -943,12 +1010,14 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -958,12 +1027,14 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -973,12 +1044,14 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -988,12 +1061,14 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1003,12 +1078,14 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1018,29 +1095,22 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">

--- a/krofulisti/krofulisti.xlsx
+++ b/krofulisti/krofulisti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raggi\Documents\Háskóli\1.Önn\Lokaverkefni\NaNAirCarRental\krofulisti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a537d988d1e6d30/Skjáborð/lokaverkyes/NaNAirCarRental/krofulisti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BA7F0D-8E9E-4ED6-82EE-CD7B953187DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="114_{76690F38-37C3-408A-8711-0CF29B704980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{378E908B-BE9B-458F-8AA0-544053912723}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23595" windowHeight="16965" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="3210" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="50">
   <si>
     <t>Númer</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Ógilda leigusamninga</t>
   </si>
   <si>
-    <t>Forritarar</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t xml:space="preserve"> Lista upplýsingar um starfsmenn</t>
   </si>
   <si>
-    <t>Lista upplýsingar um starfsmenn</t>
-  </si>
-  <si>
     <t>Listað upplýsingar um áfangastað</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Geta gert nytsemisskýrslu fyrir hvert útibú</t>
   </si>
   <si>
-    <t>Geta sýnt greidd og ógreidda reikninga eftir tímabili flokkað eftir viðskiptavini</t>
-  </si>
-  <si>
     <t>Geta gert skýrslur í fallegu og lýsandi viðmóti</t>
   </si>
   <si>
@@ -177,7 +168,13 @@
     <t>Viðmótskrafa</t>
   </si>
   <si>
-    <t>Auðveldlega hægt að breyta kerfinu</t>
+    <t>Geta sýnt greidda og ógreidda reikninga eftir tímabili flokkað eftir viðskiptavini</t>
+  </si>
+  <si>
+    <t>random chuck norris brandari byrtist þegar maður kveikir á forritinu eða fer á byrjunarreit</t>
+  </si>
+  <si>
+    <t>allir</t>
   </si>
 </sst>
 </file>
@@ -538,13 +535,13 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
@@ -566,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -597,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -617,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -643,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -663,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -677,13 +674,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -697,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -717,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -737,13 +734,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -763,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -783,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -823,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
@@ -843,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
@@ -857,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -877,13 +874,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -897,13 +894,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
@@ -914,16 +911,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>8</v>
@@ -934,16 +931,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>8</v>
@@ -954,16 +951,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>8</v>
@@ -974,16 +971,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>8</v>
@@ -994,16 +991,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
@@ -1014,16 +1011,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
@@ -1034,16 +1031,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
@@ -1054,16 +1051,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -1074,16 +1071,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>8</v>
@@ -1094,16 +1091,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>8</v>
@@ -1114,16 +1111,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>8</v>
@@ -1134,16 +1131,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
@@ -1154,16 +1151,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
@@ -1174,16 +1171,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>8</v>
@@ -1194,10 +1191,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>7</v>
@@ -1214,10 +1211,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
@@ -1234,38 +1231,18 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
